--- a/data/Data_2.xlsx
+++ b/data/Data_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mureev\Dropbox\SKILLFACTORY\IDE\split_tRNA_MANUSCRIPT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mureev\Dropbox\SKILLFACTORY\IDE\Split_tRNA_Selection_Model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>UpU</t>
   </si>
@@ -306,13 +306,19 @@
   <si>
     <t>replicate 4</t>
   </si>
+  <si>
+    <t>intact tRNAs:</t>
+  </si>
+  <si>
+    <t>N37N38 split-tRNA varinats:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -391,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -499,12 +505,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -529,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,7 +553,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,6 +570,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -837,15 +861,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U16"/>
+  <dimension ref="B1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="19" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -854,8 +878,32 @@
     <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="19"/>
+    </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -914,6 +962,7 @@
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1292,8 +1341,32 @@
         <v>0.83489964966454722</v>
       </c>
     </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="19"/>
+    </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -1352,6 +1425,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>0</v>
@@ -1653,9 +1727,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="D1:S1"/>
+    <mergeCell ref="D10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
